--- a/Data/waiting_list_gush_dan.xlsx
+++ b/Data/waiting_list_gush_dan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obengal\OneDrive - Emerson\Desktop\Python Project\TalProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obengal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7031F-1B1E-4152-896C-C0A8739C0D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937A208E-C66D-4698-95A5-A6D999F350E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
   <si>
     <t>שם מלא</t>
   </si>
@@ -78,12 +78,29 @@
   </si>
   <si>
     <t>אישור וועדה עד נובמבר 25, דוח פסיכיאטרי לא עדכני.</t>
+  </si>
+  <si>
+    <t>עליזה תשבי</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>עינת געתון קופח כללית דרך המייל.</t>
+  </si>
+  <si>
+    <t>הופנתה דרך המייל על ידי עינת געתון ביום 28.8.25.
+יש גיסה שהיא עוס עובדת בעזר מציון שהיא גורם מסייע, הומלץ לפנות אליה לקביעת אינטייק. מספר הפלאפון שלה הוא 0544306404 ושמה יעל שקד יש לברר לאיזה סניף משתייכת
+מומלץ לעשות את התיווך דרך יעל שקד, מספר הטלפון של עליזה הוא 0547579434</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,11 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +500,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -491,7 +508,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +547,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -578,7 +594,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -805,13 +820,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="D20:J22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -843,6 +861,38 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45896</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/waiting_list_gush_dan.xlsx
+++ b/Data/waiting_list_gush_dan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obengal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obengal\OneDrive - Emerson\Desktop\Python Project\TalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937A208E-C66D-4698-95A5-A6D999F350E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895686F-6C99-46D7-8BBA-9330031A6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="21">
   <si>
     <t>שם מלא</t>
   </si>
@@ -59,6 +59,15 @@
     <t>הערות</t>
   </si>
   <si>
+    <t>מקרה דחוף</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
     <t>אלון יורצ'ק</t>
   </si>
   <si>
@@ -71,19 +80,10 @@
     <t xml:space="preserve">עמיחי רותם </t>
   </si>
   <si>
-    <t>כן</t>
-  </si>
-  <si>
-    <t>לא</t>
-  </si>
-  <si>
     <t>אישור וועדה עד נובמבר 25, דוח פסיכיאטרי לא עדכני.</t>
   </si>
   <si>
     <t>עליזה תשבי</t>
-  </si>
-  <si>
-    <t>nan</t>
   </si>
   <si>
     <t>עינת געתון קופח כללית דרך המייל.</t>
@@ -99,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -155,7 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -466,7 +466,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,16 +496,20 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -513,7 +517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,6 +547,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +559,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -560,7 +567,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,6 +597,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +609,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -607,7 +617,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,6 +647,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +659,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -654,7 +667,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,48 +698,50 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -734,7 +749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,6 +779,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +791,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -781,7 +799,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,6 +829,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -820,18 +841,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,34 +880,34 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>45896</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>

--- a/Data/waiting_list_gush_dan.xlsx
+++ b/Data/waiting_list_gush_dan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obengal\OneDrive - Emerson\Desktop\Python Project\TalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895686F-6C99-46D7-8BBA-9330031A6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71C952C-4EF8-4C2F-88BB-DD33A7DA0FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,22 +62,22 @@
     <t>מקרה דחוף</t>
   </si>
   <si>
+    <t>אלון יורצ'ק</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>בלפור 144 בת ים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עמיחי רותם </t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
     <t>לא</t>
-  </si>
-  <si>
-    <t>כן</t>
-  </si>
-  <si>
-    <t>אלון יורצ'ק</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>בלפור 144 בת ים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עמיחי רותם </t>
   </si>
   <si>
     <t>אישור וועדה עד נובמבר 25, דוח פסיכיאטרי לא עדכני.</t>
@@ -503,7 +503,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -704,31 +703,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -736,6 +735,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -844,7 +844,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="L28" activeCellId="1" sqref="A1:XFD1 L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,19 +895,19 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
